--- a/SWE/Documentazione/Gantt e Finanze/Piano orario.xlsx
+++ b/SWE/Documentazione/Gantt e Finanze/Piano orario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="15120" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15120" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Analisi Requisiti" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="326">
   <si>
     <t>Identificativo</t>
   </si>
@@ -670,13 +670,7 @@
     <t>Ammin</t>
   </si>
   <si>
-    <t>anal</t>
-  </si>
-  <si>
     <t>prog</t>
-  </si>
-  <si>
-    <t>Anal</t>
   </si>
   <si>
     <t>verif</t>
@@ -1099,6 +1093,9 @@
   </si>
   <si>
     <t>Costo rendicontato</t>
+  </si>
+  <si>
+    <t>an</t>
   </si>
 </sst>
 </file>
@@ -1565,38 +1562,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1607,7 +1574,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1675,6 +1641,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1984,11 +1981,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="114073984"/>
-        <c:axId val="114075520"/>
+        <c:axId val="109228416"/>
+        <c:axId val="109229952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114073984"/>
+        <c:axId val="109228416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +1994,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114075520"/>
+        <c:crossAx val="109229952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2002,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114075520"/>
+        <c:axId val="109229952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2016,13 +2013,14 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114073984"/>
+        <c:crossAx val="109228416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2494,11 +2492,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="114802688"/>
-        <c:axId val="114804224"/>
+        <c:axId val="108654592"/>
+        <c:axId val="108656128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114802688"/>
+        <c:axId val="108654592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2507,7 +2505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114804224"/>
+        <c:crossAx val="108656128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2515,7 +2513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114804224"/>
+        <c:axId val="108656128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2526,7 +2524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114802688"/>
+        <c:crossAx val="108654592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3256,11 +3254,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="115428736"/>
-        <c:axId val="115430528"/>
+        <c:axId val="110255488"/>
+        <c:axId val="110257280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115428736"/>
+        <c:axId val="110255488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3269,7 +3267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115430528"/>
+        <c:crossAx val="110257280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3277,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115430528"/>
+        <c:axId val="110257280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3288,14 +3286,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115428736"/>
+        <c:crossAx val="110255488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3952,7 +3949,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4040,7 +4036,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4090,7 +4085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4178,7 +4172,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4838,11 +4831,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="115478528"/>
-        <c:axId val="115480064"/>
+        <c:axId val="110895104"/>
+        <c:axId val="110896640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115478528"/>
+        <c:axId val="110895104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4851,7 +4844,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115480064"/>
+        <c:crossAx val="110896640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4859,7 +4852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115480064"/>
+        <c:axId val="110896640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,7 +4863,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115478528"/>
+        <c:crossAx val="110895104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5392,11 +5385,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="115516928"/>
-        <c:axId val="115518464"/>
+        <c:axId val="110933504"/>
+        <c:axId val="110935040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115516928"/>
+        <c:axId val="110933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5405,7 +5398,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115518464"/>
+        <c:crossAx val="110935040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5413,7 +5406,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115518464"/>
+        <c:axId val="110935040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5424,7 +5417,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115516928"/>
+        <c:crossAx val="110933504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5883,11 +5876,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="114517888"/>
-        <c:axId val="114519424"/>
+        <c:axId val="109672320"/>
+        <c:axId val="109673856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114517888"/>
+        <c:axId val="109672320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,7 +5889,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114519424"/>
+        <c:crossAx val="109673856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5904,7 +5897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114519424"/>
+        <c:axId val="109673856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5915,7 +5908,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114517888"/>
+        <c:crossAx val="109672320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6237,7 +6230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6590,11 +6582,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="114579328"/>
-        <c:axId val="114580864"/>
+        <c:axId val="108759296"/>
+        <c:axId val="108765184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114579328"/>
+        <c:axId val="108759296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6603,7 +6595,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114580864"/>
+        <c:crossAx val="108765184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6611,7 +6603,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114580864"/>
+        <c:axId val="108765184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6622,14 +6614,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114579328"/>
+        <c:crossAx val="108759296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6807,7 +6798,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6895,7 +6885,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7863,7 +7852,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10:Q17"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7902,7 +7891,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>96</v>
@@ -7928,12 +7917,12 @@
       <c r="N1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C2" s="61"/>
@@ -7942,12 +7931,12 @@
       <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7962,11 +7951,11 @@
       <c r="N3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="67" t="s">
+      <c r="O3" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -7988,12 +7977,12 @@
       <c r="N4" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -8015,12 +8004,12 @@
       <c r="N5" t="s">
         <v>7</v>
       </c>
-      <c r="O5" s="67" t="s">
+      <c r="O5" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -8042,12 +8031,12 @@
       <c r="N6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -8062,12 +8051,12 @@
       <c r="N7" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="67" t="s">
+      <c r="O7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -8322,7 +8311,7 @@
       <c r="K16" s="23"/>
       <c r="M16" s="3"/>
       <c r="N16" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O16" s="51">
         <v>0</v>
@@ -8521,7 +8510,7 @@
         <v>103</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O23" s="5">
         <v>8</v>
@@ -8560,7 +8549,7 @@
         <v>103</v>
       </c>
       <c r="N24" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
@@ -8600,7 +8589,7 @@
         <v>105</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5">
@@ -8637,7 +8626,7 @@
         <v>103</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
@@ -8675,7 +8664,7 @@
         <v>104</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O27" s="5"/>
       <c r="P27" s="5"/>
@@ -8705,7 +8694,7 @@
         <v>103</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O28" s="5">
         <v>8</v>
@@ -8744,7 +8733,7 @@
         <v>103</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O29" s="5">
         <v>8</v>
@@ -8770,10 +8759,10 @@
         <v>69</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E30" s="32">
         <v>18</v>
@@ -9157,7 +9146,7 @@
       </c>
       <c r="J9" s="23"/>
       <c r="M9" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="N9" s="51">
         <v>0</v>
@@ -9314,7 +9303,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L19" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
@@ -9331,7 +9320,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L20" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
@@ -9346,7 +9335,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L21" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
@@ -9361,7 +9350,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L22" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M22" s="8">
         <v>3</v>
@@ -9378,7 +9367,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L23" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8">
@@ -9395,7 +9384,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L24" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
@@ -9410,7 +9399,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="L25" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -9473,7 +9462,7 @@
   <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q9"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9504,7 +9493,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>96</v>
@@ -9765,7 +9754,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="N8" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O8" s="8">
         <v>0</v>
@@ -9927,7 +9916,7 @@
         <v>82</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>126</v>
@@ -9950,13 +9939,13 @@
         <v>177</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E14" s="32">
         <v>8</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G14" s="18"/>
       <c r="H14" s="17" t="s">
@@ -9967,7 +9956,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="N14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O14" s="8">
         <v>0</v>
@@ -10003,7 +9992,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="N15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O15" s="8">
         <v>6</v>
@@ -10044,7 +10033,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="21"/>
       <c r="N16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -10085,7 +10074,7 @@
       <c r="K17" s="18"/>
       <c r="L17" s="21"/>
       <c r="N17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8">
@@ -10128,7 +10117,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="21"/>
       <c r="N18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O18" s="8">
         <v>3</v>
@@ -10159,7 +10148,7 @@
         <v>156</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D19" s="33">
         <v>8</v>
@@ -10174,7 +10163,7 @@
       <c r="J19" s="36"/>
       <c r="L19" s="21"/>
       <c r="N19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O19" s="8">
         <v>1</v>
@@ -10209,7 +10198,7 @@
       <c r="G20" s="29"/>
       <c r="H20" s="27"/>
       <c r="N20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -10237,7 +10226,7 @@
         <v>179</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E21" s="33">
         <v>14</v>
@@ -10245,11 +10234,11 @@
       <c r="F21" s="28"/>
       <c r="G21" s="36"/>
       <c r="H21" s="41" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="I21" s="18"/>
       <c r="J21" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L21" s="18"/>
       <c r="N21" s="6"/>
@@ -10292,7 +10281,7 @@
         <v>179</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E22" s="33">
         <v>14</v>
@@ -10300,7 +10289,7 @@
       <c r="F22" s="29"/>
       <c r="G22" s="39"/>
       <c r="H22" s="41" t="s">
-        <v>191</v>
+        <v>325</v>
       </c>
       <c r="I22" s="18"/>
       <c r="L22" s="18"/>
@@ -10324,7 +10313,7 @@
       <c r="F23" s="35"/>
       <c r="G23" s="39"/>
       <c r="H23" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L23" s="18"/>
     </row>
@@ -10347,7 +10336,7 @@
       <c r="F24" s="35"/>
       <c r="G24" s="38"/>
       <c r="H24" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -10420,10 +10409,10 @@
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="19" t="s">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -10555,8 +10544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3:Q9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10580,10 +10569,10 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
@@ -10592,7 +10581,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>96</v>
@@ -10618,7 +10607,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>18</v>
@@ -10651,7 +10640,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>108</v>
@@ -10692,7 +10681,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>24</v>
@@ -10733,7 +10722,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>48</v>
@@ -10768,7 +10757,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>108</v>
@@ -10802,7 +10791,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>136</v>
@@ -10842,7 +10831,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>138</v>
@@ -10864,7 +10853,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="N8" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O8" s="8">
         <v>132</v>
@@ -10882,7 +10871,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>24</v>
@@ -10921,7 +10910,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>37</v>
@@ -10946,7 +10935,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>108</v>
@@ -10977,7 +10966,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
@@ -11008,7 +10997,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>144</v>
@@ -11034,7 +11023,7 @@
         <v>82</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>126</v>
@@ -11048,7 +11037,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>108</v>
@@ -11070,7 +11059,7 @@
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="N14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
@@ -11091,7 +11080,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>24</v>
@@ -11113,7 +11102,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="N15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8">
@@ -11136,7 +11125,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>65</v>
@@ -11152,7 +11141,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="N16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O16" s="8">
         <v>8</v>
@@ -11173,33 +11162,33 @@
     </row>
     <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E17" s="44">
         <v>14</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="N17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
@@ -11220,10 +11209,10 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18" s="42" t="s">
         <v>126</v>
@@ -11242,7 +11231,7 @@
       <c r="K18" s="45"/>
       <c r="L18" s="18"/>
       <c r="N18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
@@ -11265,7 +11254,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>24</v>
@@ -11287,7 +11276,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="N19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O19" s="8"/>
       <c r="P19" s="8">
@@ -11310,10 +11299,10 @@
     </row>
     <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
@@ -11326,7 +11315,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="N20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
@@ -11347,13 +11336,13 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D21" s="44">
         <v>18</v>
@@ -11400,13 +11389,13 @@
     </row>
     <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D22" s="44">
         <v>17</v>
@@ -11425,13 +11414,13 @@
     </row>
     <row r="23" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D23" s="44">
         <v>10</v>
@@ -11449,7 +11438,7 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>24</v>
@@ -11473,13 +11462,13 @@
     </row>
     <row r="25" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D25" s="44">
         <v>28</v>
@@ -11498,13 +11487,13 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D26" s="44">
         <v>15</v>
@@ -11522,10 +11511,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="28" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="44"/>
@@ -11540,39 +11529,39 @@
     </row>
     <row r="28" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B28" s="29" t="s">
         <v>76</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E28" s="44">
         <v>30</v>
       </c>
       <c r="F28" s="46"/>
       <c r="G28" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L28" s="18"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B29" s="29" t="s">
         <v>24</v>
@@ -11742,7 +11731,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>96</v>
@@ -11768,7 +11757,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>18</v>
@@ -11800,7 +11789,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>108</v>
@@ -11840,7 +11829,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>24</v>
@@ -11880,7 +11869,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>48</v>
@@ -11913,7 +11902,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>108</v>
@@ -11946,7 +11935,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>136</v>
@@ -11985,7 +11974,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>138</v>
@@ -12007,7 +11996,7 @@
       <c r="K8" s="23"/>
       <c r="L8" s="18"/>
       <c r="N8" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O8" s="25">
         <v>30</v>
@@ -12024,7 +12013,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>24</v>
@@ -12062,7 +12051,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>65</v>
@@ -12086,7 +12075,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B11" s="29" t="s">
         <v>108</v>
@@ -12116,13 +12105,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D12" s="42">
         <v>3</v>
@@ -12148,10 +12137,10 @@
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -12174,7 +12163,7 @@
         <v>82</v>
       </c>
       <c r="R13" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="S13" s="63" t="s">
         <v>126</v>
@@ -12188,7 +12177,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B14" s="29" t="s">
         <v>108</v>
@@ -12210,7 +12199,7 @@
       <c r="K14" s="23"/>
       <c r="L14" s="18"/>
       <c r="N14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="O14" s="48">
         <v>5</v>
@@ -12229,7 +12218,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B15" s="29" t="s">
         <v>24</v>
@@ -12251,7 +12240,7 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="N15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O15" s="48"/>
       <c r="P15" s="48"/>
@@ -12270,7 +12259,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>144</v>
@@ -12286,7 +12275,7 @@
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="N16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="O16" s="48"/>
       <c r="P16" s="48">
@@ -12307,16 +12296,16 @@
     </row>
     <row r="17" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E17" s="44">
         <v>15</v>
@@ -12329,7 +12318,7 @@
       <c r="K17" s="18"/>
       <c r="L17" s="21"/>
       <c r="N17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="O17" s="48">
         <v>1</v>
@@ -12352,7 +12341,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>24</v>
@@ -12374,7 +12363,7 @@
       <c r="K18" s="45"/>
       <c r="L18" s="18"/>
       <c r="N18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="O18" s="48"/>
       <c r="P18" s="48"/>
@@ -12393,7 +12382,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>74</v>
@@ -12409,7 +12398,7 @@
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="N19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="O19" s="48"/>
       <c r="P19" s="48"/>
@@ -12430,7 +12419,7 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="29" t="s">
         <v>108</v>
@@ -12446,7 +12435,7 @@
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="N20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O20" s="48"/>
       <c r="P20" s="48"/>
@@ -12467,7 +12456,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>24</v>
@@ -12520,10 +12509,10 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
@@ -12538,37 +12527,37 @@
     </row>
     <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B23" s="29" t="s">
         <v>108</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E23" s="44">
         <v>18</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="39" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L23" s="18"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B24" s="29" t="s">
         <v>24</v>
@@ -12592,13 +12581,13 @@
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D25" s="44" t="s">
         <v>182</v>
@@ -12607,44 +12596,44 @@
         <v>6</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
       <c r="I25" s="18"/>
       <c r="J25" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
     </row>
     <row r="26" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26" s="44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E26" s="44">
         <v>44</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -12732,7 +12721,7 @@
   <dimension ref="A1:AR36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:F35"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12754,56 +12743,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="J1" s="98" t="s">
+        <v>289</v>
+      </c>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="S1" s="98" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="J1" s="69" t="s">
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AB1" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AK1" s="98" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="S1" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AB1" s="69" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AK1" s="69" t="s">
-        <v>293</v>
-      </c>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
-      <c r="AO1" s="69"/>
-      <c r="AP1" s="69"/>
-      <c r="AQ1" s="69"/>
-      <c r="AR1" s="69"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
@@ -13270,7 +13259,7 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="61">
         <v>0</v>
@@ -13286,7 +13275,7 @@
       <c r="F9" s="51"/>
       <c r="G9" s="51"/>
       <c r="J9" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K9" s="61">
         <v>0</v>
@@ -13302,7 +13291,7 @@
       <c r="O9" s="51"/>
       <c r="P9" s="51"/>
       <c r="S9" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="T9" s="61">
         <v>0</v>
@@ -13316,7 +13305,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
       <c r="AB9" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AC9" s="61">
         <v>132</v>
@@ -13330,7 +13319,7 @@
       </c>
       <c r="AF9" s="51"/>
       <c r="AK9" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AL9" s="61">
         <v>30</v>
@@ -13427,13 +13416,13 @@
         <v>82</v>
       </c>
       <c r="E13" s="51" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F13" s="61" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H13" s="51" t="s">
         <v>100</v>
@@ -13449,7 +13438,7 @@
         <v>82</v>
       </c>
       <c r="N13" s="51" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O13" s="61" t="s">
         <v>99</v>
@@ -13471,7 +13460,7 @@
         <v>82</v>
       </c>
       <c r="W13" s="61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="X13" s="61" t="s">
         <v>99</v>
@@ -13493,7 +13482,7 @@
         <v>82</v>
       </c>
       <c r="AF13" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AG13" s="61" t="s">
         <v>99</v>
@@ -13515,7 +13504,7 @@
         <v>82</v>
       </c>
       <c r="AO13" s="61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="AP13" s="61" t="s">
         <v>99</v>
@@ -13529,7 +13518,7 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B14" s="51">
         <v>8</v>
@@ -13550,7 +13539,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K14" s="51"/>
       <c r="L14" s="51"/>
@@ -13567,7 +13556,7 @@
         <v>6</v>
       </c>
       <c r="S14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="T14" s="61">
         <v>0</v>
@@ -13586,7 +13575,7 @@
         <v>31</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
@@ -13605,7 +13594,7 @@
         <v>50</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AL14" s="61">
         <v>5</v>
@@ -13624,7 +13613,7 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -13643,7 +13632,7 @@
         <v>20</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K15" s="51"/>
       <c r="L15" s="51"/>
@@ -13658,7 +13647,7 @@
         <v>5</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="T15" s="61">
         <v>6</v>
@@ -13675,7 +13664,7 @@
         <v>35</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AC15" s="61"/>
       <c r="AD15" s="61">
@@ -13696,7 +13685,7 @@
         <v>51</v>
       </c>
       <c r="AK15" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AL15" s="61"/>
       <c r="AM15" s="61"/>
@@ -13715,7 +13704,7 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B16" s="51"/>
       <c r="C16" s="51">
@@ -13734,7 +13723,7 @@
         <v>21</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K16" s="51"/>
       <c r="L16" s="51"/>
@@ -13749,7 +13738,7 @@
         <v>5</v>
       </c>
       <c r="S16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="T16" s="61"/>
       <c r="U16" s="61"/>
@@ -13766,7 +13755,7 @@
         <v>33</v>
       </c>
       <c r="AB16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AC16" s="61">
         <v>8</v>
@@ -13785,7 +13774,7 @@
         <v>49</v>
       </c>
       <c r="AK16" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AL16" s="61"/>
       <c r="AM16" s="61">
@@ -13806,7 +13795,7 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
@@ -13825,7 +13814,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K17" s="51">
         <v>3</v>
@@ -13842,7 +13831,7 @@
         <v>6</v>
       </c>
       <c r="S17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="T17" s="61"/>
       <c r="U17" s="61">
@@ -13861,7 +13850,7 @@
         <v>34</v>
       </c>
       <c r="AB17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AC17" s="61"/>
       <c r="AD17" s="61"/>
@@ -13880,7 +13869,7 @@
         <v>52</v>
       </c>
       <c r="AK17" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AL17" s="61">
         <v>1</v>
@@ -13903,7 +13892,7 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -13922,7 +13911,7 @@
         <v>20</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K18" s="51"/>
       <c r="L18" s="51">
@@ -13939,7 +13928,7 @@
         <v>8</v>
       </c>
       <c r="S18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="T18" s="61">
         <v>3</v>
@@ -13962,7 +13951,7 @@
         <v>33</v>
       </c>
       <c r="AB18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
@@ -13983,7 +13972,7 @@
         <v>48</v>
       </c>
       <c r="AK18" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="AL18" s="61"/>
       <c r="AM18" s="61"/>
@@ -14002,7 +13991,7 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B19" s="51">
         <v>8</v>
@@ -14021,7 +14010,7 @@
         <v>18</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K19" s="51"/>
       <c r="L19" s="51"/>
@@ -14036,7 +14025,7 @@
         <v>5</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="T19" s="61">
         <v>1</v>
@@ -14057,7 +14046,7 @@
         <v>35</v>
       </c>
       <c r="AB19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AC19" s="61"/>
       <c r="AD19" s="61">
@@ -14078,7 +14067,7 @@
         <v>49</v>
       </c>
       <c r="AK19" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="AL19" s="61"/>
       <c r="AM19" s="61"/>
@@ -14099,7 +14088,7 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B20" s="51">
         <v>8</v>
@@ -14120,7 +14109,7 @@
         <v>21</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K20" s="51"/>
       <c r="L20" s="51"/>
@@ -14137,7 +14126,7 @@
         <v>6</v>
       </c>
       <c r="S20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="T20" s="61"/>
       <c r="U20" s="61"/>
@@ -14154,7 +14143,7 @@
         <v>35</v>
       </c>
       <c r="AB20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AC20" s="61"/>
       <c r="AD20" s="61"/>
@@ -14173,7 +14162,7 @@
         <v>46</v>
       </c>
       <c r="AK20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AL20" s="61"/>
       <c r="AM20" s="61"/>
@@ -14335,45 +14324,45 @@
       </c>
     </row>
     <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H27" s="70" t="s">
-        <v>309</v>
-      </c>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
-      <c r="W27" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="67"/>
-      <c r="Z27" s="67"/>
-      <c r="AA27" s="67"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="67"/>
+      <c r="H27" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="106"/>
+      <c r="M27" s="106"/>
+      <c r="N27" s="106"/>
+      <c r="O27" s="106"/>
+      <c r="W27" s="106" t="s">
+        <v>308</v>
+      </c>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>296</v>
-      </c>
       <c r="E28" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="51" t="s">
@@ -14386,7 +14375,7 @@
         <v>82</v>
       </c>
       <c r="L28" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M28" s="51" t="s">
         <v>126</v>
@@ -14401,13 +14390,13 @@
       <c r="Q28" s="51"/>
       <c r="R28" s="6"/>
       <c r="S28" s="58" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="T28" s="58" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="U28" s="58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="V28" s="58"/>
       <c r="W28" s="6"/>
@@ -14421,7 +14410,7 @@
         <v>82</v>
       </c>
       <c r="AA28" s="61" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="AB28" s="61" t="s">
         <v>126</v>
@@ -14458,7 +14447,7 @@
         <v>920</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="I29" s="51">
         <f>B14+K14+T14+AC14+AL14</f>
@@ -14491,7 +14480,7 @@
       <c r="P29" s="51"/>
       <c r="Q29" s="51"/>
       <c r="R29" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="S29" s="58">
         <f>H14+Q14</f>
@@ -14507,7 +14496,7 @@
       </c>
       <c r="V29" s="58"/>
       <c r="W29" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="X29" s="61">
         <f t="shared" ref="X29:AC35" si="17">T14+AC14+AL14</f>
@@ -14563,7 +14552,7 @@
         <v>1530</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30" s="51">
         <f t="shared" ref="I30:I35" si="21">B15+K15+T15+AC15+AL15</f>
@@ -14596,7 +14585,7 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="51"/>
       <c r="R30" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="S30" s="58">
         <f>H15+Q15</f>
@@ -14612,7 +14601,7 @@
       </c>
       <c r="V30" s="58"/>
       <c r="W30" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="X30" s="61">
         <f t="shared" si="17"/>
@@ -14668,7 +14657,7 @@
         <v>2950</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I31" s="51">
         <f t="shared" si="21"/>
@@ -14701,7 +14690,7 @@
       <c r="P31" s="51"/>
       <c r="Q31" s="51"/>
       <c r="R31" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="S31" s="58">
         <f t="shared" ref="S31:S35" si="28">H16+Q16</f>
@@ -14717,7 +14706,7 @@
       </c>
       <c r="V31" s="58"/>
       <c r="W31" s="10" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="X31" s="61">
         <f t="shared" si="17"/>
@@ -14773,7 +14762,7 @@
         <v>3645</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I32" s="51">
         <f t="shared" si="21"/>
@@ -14806,7 +14795,7 @@
       <c r="P32" s="51"/>
       <c r="Q32" s="51"/>
       <c r="R32" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="S32" s="58">
         <f t="shared" si="28"/>
@@ -14822,7 +14811,7 @@
       </c>
       <c r="V32" s="58"/>
       <c r="W32" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="X32" s="61">
         <f t="shared" si="17"/>
@@ -14878,7 +14867,7 @@
         <v>6446</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I33" s="51">
         <f>B18+K18+T18+AC18+AL18</f>
@@ -14911,7 +14900,7 @@
       <c r="P33" s="51"/>
       <c r="Q33" s="51"/>
       <c r="R33" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="S33" s="58">
         <f t="shared" si="28"/>
@@ -14927,7 +14916,7 @@
       </c>
       <c r="V33" s="58"/>
       <c r="W33" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="X33" s="61">
         <f t="shared" si="17"/>
@@ -14960,7 +14949,7 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="51" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B34">
         <f t="shared" si="18"/>
@@ -14983,7 +14972,7 @@
         <v>2430</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I34" s="51">
         <f t="shared" si="21"/>
@@ -15016,7 +15005,7 @@
       <c r="P34" s="51"/>
       <c r="Q34" s="51"/>
       <c r="R34" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="S34" s="58">
         <f t="shared" si="28"/>
@@ -15032,7 +15021,7 @@
       </c>
       <c r="V34" s="58"/>
       <c r="W34" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X34" s="61">
         <f t="shared" si="17"/>
@@ -15065,7 +15054,7 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35" si="29">SUM(B29:B34)</f>
@@ -15088,10 +15077,10 @@
         <v>17921</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I35" s="51">
         <f t="shared" si="21"/>
@@ -15124,7 +15113,7 @@
       <c r="P35" s="51"/>
       <c r="Q35" s="51"/>
       <c r="R35" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S35" s="58">
         <f t="shared" si="28"/>
@@ -15140,7 +15129,7 @@
       </c>
       <c r="V35" s="58"/>
       <c r="W35" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="X35" s="61">
         <f t="shared" si="17"/>
@@ -15267,7 +15256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S34" sqref="S33:S34"/>
     </sheetView>
   </sheetViews>
@@ -15287,7 +15276,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>1</v>
@@ -15402,46 +15391,46 @@
       <c r="D9" s="65">
         <v>3</v>
       </c>
-      <c r="G9" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="H9" s="74" t="s">
-        <v>321</v>
-      </c>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="76" t="s">
+      <c r="G9" s="104" t="s">
+        <v>318</v>
+      </c>
+      <c r="H9" s="100" t="s">
+        <v>319</v>
+      </c>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="102" t="s">
+        <v>322</v>
+      </c>
+      <c r="P9" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="93" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="U9" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9" s="90" t="s">
+        <v>292</v>
+      </c>
+      <c r="W9" s="93" t="s">
+        <v>293</v>
+      </c>
+      <c r="X9" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y9" s="93" t="s">
         <v>324</v>
       </c>
-      <c r="P9" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="104" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="102"/>
-      <c r="S9" s="103" t="s">
-        <v>325</v>
-      </c>
-      <c r="U9" s="91" t="s">
-        <v>186</v>
-      </c>
-      <c r="V9" s="101" t="s">
-        <v>294</v>
-      </c>
-      <c r="W9" s="104" t="s">
-        <v>295</v>
-      </c>
-      <c r="X9" s="102" t="s">
-        <v>296</v>
-      </c>
-      <c r="Y9" s="104" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z9" s="103" t="s">
+      <c r="Z9" s="92" t="s">
         <v>95</v>
       </c>
     </row>
@@ -15458,54 +15447,54 @@
       <c r="D10" s="65">
         <v>3</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78" t="s">
+      <c r="G10" s="105"/>
+      <c r="H10" s="68" t="s">
+        <v>314</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" s="69" t="s">
         <v>316</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="K10" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="J10" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="K10" s="80" t="s">
-        <v>322</v>
-      </c>
-      <c r="L10" s="79" t="s">
-        <v>319</v>
-      </c>
-      <c r="M10" s="80" t="s">
-        <v>323</v>
-      </c>
-      <c r="N10" s="81"/>
-      <c r="P10" s="92" t="s">
+      <c r="M10" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="N10" s="103"/>
+      <c r="P10" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="Q10" s="96">
+      <c r="Q10" s="85">
         <v>8</v>
       </c>
-      <c r="R10" s="96">
+      <c r="R10" s="85">
         <v>20</v>
       </c>
-      <c r="S10" s="84">
+      <c r="S10" s="73">
         <v>160</v>
       </c>
-      <c r="U10" s="93" t="s">
+      <c r="U10" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="V10" s="95">
+      <c r="V10" s="84">
         <v>21</v>
       </c>
-      <c r="W10" s="96">
+      <c r="W10" s="85">
         <v>25</v>
       </c>
-      <c r="X10" s="84">
+      <c r="X10" s="73">
         <v>46</v>
       </c>
-      <c r="Y10" s="95">
+      <c r="Y10" s="84">
         <v>500</v>
       </c>
-      <c r="Z10" s="84">
+      <c r="Z10" s="73">
         <v>920</v>
       </c>
     </row>
@@ -15522,51 +15511,51 @@
       <c r="D11" s="65">
         <v>2</v>
       </c>
-      <c r="G11" s="82" t="s">
-        <v>283</v>
+      <c r="G11" s="71" t="s">
+        <v>281</v>
       </c>
       <c r="H11" s="65"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="89">
+      <c r="I11" s="72"/>
+      <c r="J11" s="78">
         <v>5</v>
       </c>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83">
+      <c r="K11" s="72"/>
+      <c r="L11" s="72">
         <v>1</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="90">
+      <c r="M11" s="72"/>
+      <c r="N11" s="79">
         <f>SUM(J11:M11)</f>
         <v>6</v>
       </c>
-      <c r="P11" s="83" t="s">
+      <c r="P11" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="84">
+      <c r="Q11" s="73">
         <v>6</v>
       </c>
-      <c r="R11" s="83">
+      <c r="R11" s="72">
         <v>30</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="86">
         <v>180</v>
       </c>
-      <c r="U11" s="85" t="s">
+      <c r="U11" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="V11" s="89">
+      <c r="V11" s="78">
         <v>27</v>
       </c>
-      <c r="W11" s="83">
+      <c r="W11" s="72">
         <v>24</v>
       </c>
-      <c r="X11" s="89">
+      <c r="X11" s="78">
         <v>51</v>
       </c>
-      <c r="Y11" s="83">
+      <c r="Y11" s="72">
         <v>720</v>
       </c>
-      <c r="Z11" s="83">
+      <c r="Z11" s="72">
         <v>1530</v>
       </c>
     </row>
@@ -15579,49 +15568,49 @@
       </c>
       <c r="C12" s="65"/>
       <c r="D12" s="65"/>
-      <c r="G12" s="85" t="s">
-        <v>284</v>
+      <c r="G12" s="74" t="s">
+        <v>282</v>
       </c>
       <c r="H12" s="65"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="89">
+      <c r="I12" s="72"/>
+      <c r="J12" s="78">
         <v>5</v>
       </c>
-      <c r="K12" s="83"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="83"/>
-      <c r="N12" s="84">
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="73">
         <f t="shared" ref="N12:N17" si="0">SUM(J12:M12)</f>
         <v>5</v>
       </c>
-      <c r="P12" s="83" t="s">
+      <c r="P12" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="Q12" s="84">
+      <c r="Q12" s="73">
         <v>0</v>
       </c>
-      <c r="R12" s="83">
+      <c r="R12" s="72">
         <v>25</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="86">
         <v>0</v>
       </c>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="74" t="s">
         <v>188</v>
       </c>
-      <c r="V12" s="89">
+      <c r="V12" s="78">
         <v>91</v>
       </c>
-      <c r="W12" s="83">
+      <c r="W12" s="72">
         <v>27</v>
       </c>
-      <c r="X12" s="89">
+      <c r="X12" s="78">
         <v>118</v>
       </c>
-      <c r="Y12" s="83">
+      <c r="Y12" s="72">
         <v>675</v>
       </c>
-      <c r="Z12" s="83">
+      <c r="Z12" s="72">
         <v>2950</v>
       </c>
     </row>
@@ -15638,49 +15627,49 @@
       <c r="D13" s="65">
         <v>3</v>
       </c>
-      <c r="G13" s="85" t="s">
-        <v>285</v>
+      <c r="G13" s="74" t="s">
+        <v>283</v>
       </c>
       <c r="H13" s="65"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="89">
+      <c r="I13" s="72"/>
+      <c r="J13" s="78">
         <v>5</v>
       </c>
-      <c r="K13" s="83"/>
-      <c r="L13" s="83"/>
-      <c r="M13" s="83"/>
-      <c r="N13" s="84">
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P13" s="83" t="s">
+      <c r="P13" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="Q13" s="84">
+      <c r="Q13" s="73">
         <v>72</v>
       </c>
-      <c r="R13" s="83">
+      <c r="R13" s="72">
         <v>15</v>
       </c>
-      <c r="S13" s="97">
+      <c r="S13" s="86">
         <v>1080</v>
       </c>
-      <c r="U13" s="85" t="s">
+      <c r="U13" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="V13" s="89">
+      <c r="V13" s="78">
         <v>41</v>
       </c>
-      <c r="W13" s="83">
+      <c r="W13" s="72">
         <v>202</v>
       </c>
-      <c r="X13" s="89">
+      <c r="X13" s="78">
         <v>243</v>
       </c>
-      <c r="Y13" s="83">
+      <c r="Y13" s="72">
         <v>3030</v>
       </c>
-      <c r="Z13" s="83">
+      <c r="Z13" s="72">
         <v>3645</v>
       </c>
     </row>
@@ -15697,50 +15686,50 @@
       <c r="D14" s="65">
         <v>3</v>
       </c>
-      <c r="G14" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="89">
+      <c r="G14" s="74" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="78">
         <v>3</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="89">
+      <c r="I14" s="72"/>
+      <c r="J14" s="78">
         <v>3</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="83"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84">
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="73">
         <v>6</v>
       </c>
-      <c r="P14" s="83" t="s">
+      <c r="P14" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="73">
         <v>36</v>
       </c>
-      <c r="R14" s="83">
+      <c r="R14" s="72">
         <v>22</v>
       </c>
-      <c r="S14" s="97">
+      <c r="S14" s="86">
         <v>792</v>
       </c>
-      <c r="U14" s="85" t="s">
+      <c r="U14" s="74" t="s">
         <v>187</v>
       </c>
-      <c r="V14" s="89">
+      <c r="V14" s="78">
         <v>0</v>
       </c>
-      <c r="W14" s="83">
+      <c r="W14" s="72">
         <v>293</v>
       </c>
-      <c r="X14" s="89">
+      <c r="X14" s="78">
         <v>293</v>
       </c>
-      <c r="Y14" s="83">
+      <c r="Y14" s="72">
         <v>6446</v>
       </c>
-      <c r="Z14" s="83">
+      <c r="Z14" s="72">
         <v>6446</v>
       </c>
     </row>
@@ -15757,50 +15746,50 @@
       <c r="D15" s="65">
         <v>5</v>
       </c>
-      <c r="G15" s="85" t="s">
-        <v>287</v>
+      <c r="G15" s="74" t="s">
+        <v>285</v>
       </c>
       <c r="H15" s="65"/>
-      <c r="I15" s="83">
+      <c r="I15" s="72">
         <v>2</v>
       </c>
-      <c r="J15" s="89"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83">
+      <c r="J15" s="78"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72">
         <v>6</v>
       </c>
-      <c r="M15" s="83"/>
-      <c r="N15" s="84">
+      <c r="M15" s="72"/>
+      <c r="N15" s="73">
         <v>8</v>
       </c>
-      <c r="P15" s="83" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q15" s="84">
+      <c r="P15" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q15" s="73">
         <v>30</v>
       </c>
-      <c r="R15" s="83">
+      <c r="R15" s="72">
         <v>15</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="86">
         <v>450</v>
       </c>
-      <c r="U15" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="V15" s="89">
+      <c r="U15" s="74" t="s">
+        <v>224</v>
+      </c>
+      <c r="V15" s="78">
         <v>0</v>
       </c>
-      <c r="W15" s="83">
+      <c r="W15" s="72">
         <v>162</v>
       </c>
-      <c r="X15" s="89">
+      <c r="X15" s="78">
         <v>162</v>
       </c>
-      <c r="Y15" s="83">
+      <c r="Y15" s="72">
         <v>2430</v>
       </c>
-      <c r="Z15" s="83">
+      <c r="Z15" s="72">
         <v>2430</v>
       </c>
     </row>
@@ -15817,47 +15806,47 @@
       <c r="D16" s="65">
         <v>2</v>
       </c>
-      <c r="G16" s="85" t="s">
-        <v>288</v>
+      <c r="G16" s="74" t="s">
+        <v>286</v>
       </c>
       <c r="H16" s="65"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="89">
+      <c r="I16" s="72"/>
+      <c r="J16" s="78">
         <v>5</v>
       </c>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="83"/>
-      <c r="N16" s="84">
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="73">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P16" s="105" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q16" s="100">
+      <c r="P16" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q16" s="89">
         <v>152</v>
       </c>
-      <c r="R16" s="98"/>
-      <c r="S16" s="99">
+      <c r="R16" s="87"/>
+      <c r="S16" s="88">
         <v>2662</v>
       </c>
-      <c r="U16" s="94" t="s">
-        <v>296</v>
-      </c>
-      <c r="V16" s="106">
+      <c r="U16" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="V16" s="95">
         <v>180</v>
       </c>
-      <c r="W16" s="98">
+      <c r="W16" s="87">
         <v>733</v>
       </c>
-      <c r="X16" s="106">
+      <c r="X16" s="95">
         <v>913</v>
       </c>
-      <c r="Y16" s="98">
+      <c r="Y16" s="87">
         <v>13801</v>
       </c>
-      <c r="Z16" s="98">
+      <c r="Z16" s="87">
         <v>17921</v>
       </c>
     </row>
@@ -15874,20 +15863,20 @@
       <c r="D17" s="65">
         <v>3</v>
       </c>
-      <c r="G17" s="86" t="s">
-        <v>289</v>
-      </c>
-      <c r="H17" s="72"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="88">
+      <c r="G17" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="H17" s="67"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="77">
         <v>5</v>
       </c>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87">
+      <c r="K17" s="76"/>
+      <c r="L17" s="76">
         <v>1</v>
       </c>
-      <c r="M17" s="87"/>
-      <c r="N17" s="88">
+      <c r="M17" s="76"/>
+      <c r="N17" s="77">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -16046,10 +16035,10 @@
         <v>69</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">

--- a/SWE/Documentazione/Gantt e Finanze/Piano orario.xlsx
+++ b/SWE/Documentazione/Gantt e Finanze/Piano orario.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="15120" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="15120" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Analisi Requisiti" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="332">
   <si>
     <t>Identificativo</t>
   </si>
@@ -1096,6 +1096,24 @@
   </si>
   <si>
     <t>an</t>
+  </si>
+  <si>
+    <t>15(+1)</t>
+  </si>
+  <si>
+    <t>16(+1)</t>
+  </si>
+  <si>
+    <t>11(-1)</t>
+  </si>
+  <si>
+    <t>20(21)</t>
+  </si>
+  <si>
+    <t>19(20)</t>
+  </si>
+  <si>
+    <t>21(20)</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1650,6 +1668,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1669,9 +1690,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1981,11 +2001,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="109228416"/>
-        <c:axId val="109229952"/>
+        <c:axId val="111710592"/>
+        <c:axId val="111712128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109228416"/>
+        <c:axId val="111710592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +2014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109229952"/>
+        <c:crossAx val="111712128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2002,7 +2022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109229952"/>
+        <c:axId val="111712128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,14 +2033,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109228416"/>
+        <c:crossAx val="111710592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2492,11 +2511,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="108654592"/>
-        <c:axId val="108656128"/>
+        <c:axId val="112386048"/>
+        <c:axId val="112387584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108654592"/>
+        <c:axId val="112386048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2505,7 +2524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108656128"/>
+        <c:crossAx val="112387584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2513,7 +2532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108656128"/>
+        <c:axId val="112387584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2543,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108654592"/>
+        <c:crossAx val="112386048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2580,7 +2599,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2668,7 +2686,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2713,7 +2730,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2801,7 +2817,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3254,11 +3269,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="110255488"/>
-        <c:axId val="110257280"/>
+        <c:axId val="113077632"/>
+        <c:axId val="113079424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110255488"/>
+        <c:axId val="113077632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3282,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110257280"/>
+        <c:crossAx val="113079424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3275,7 +3290,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110257280"/>
+        <c:axId val="113079424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3301,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110255488"/>
+        <c:crossAx val="113077632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3337,7 +3352,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3425,7 +3439,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3475,7 +3488,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3563,7 +3575,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3608,7 +3619,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3696,7 +3706,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3745,7 +3754,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3899,7 +3907,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4311,7 +4318,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4361,7 +4367,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4831,11 +4836,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="110895104"/>
-        <c:axId val="110896640"/>
+        <c:axId val="113119232"/>
+        <c:axId val="113120768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110895104"/>
+        <c:axId val="113119232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4844,7 +4849,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110896640"/>
+        <c:crossAx val="113120768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4852,7 +4857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110896640"/>
+        <c:axId val="113120768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,14 +4868,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110895104"/>
+        <c:crossAx val="113119232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4915,7 +4919,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5385,11 +5388,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="110933504"/>
-        <c:axId val="110935040"/>
+        <c:axId val="113157632"/>
+        <c:axId val="113159168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="110933504"/>
+        <c:axId val="113157632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5398,7 +5401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110935040"/>
+        <c:crossAx val="113159168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5406,7 +5409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="110935040"/>
+        <c:axId val="113159168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,14 +5420,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110933504"/>
+        <c:crossAx val="113157632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5469,7 +5471,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5557,7 +5558,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5607,7 +5607,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5876,11 +5875,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="109672320"/>
-        <c:axId val="109673856"/>
+        <c:axId val="111896448"/>
+        <c:axId val="111897984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="109672320"/>
+        <c:axId val="111896448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5889,7 +5888,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109673856"/>
+        <c:crossAx val="111897984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5897,7 +5896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109673856"/>
+        <c:axId val="111897984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5908,14 +5907,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109672320"/>
+        <c:crossAx val="111896448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6582,11 +6580,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="108759296"/>
-        <c:axId val="108765184"/>
+        <c:axId val="112296320"/>
+        <c:axId val="112297856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="108759296"/>
+        <c:axId val="112296320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6595,7 +6593,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108765184"/>
+        <c:crossAx val="112297856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6603,7 +6601,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108765184"/>
+        <c:axId val="112297856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6614,7 +6612,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108759296"/>
+        <c:crossAx val="112296320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6665,7 +6663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6753,7 +6750,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7851,8 +7847,8 @@
   </sheetPr>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="C9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10544,7 +10540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
@@ -12743,7 +12739,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="98"/>
@@ -14324,17 +14320,17 @@
       </c>
     </row>
     <row r="27" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H27" s="106" t="s">
+      <c r="H27" s="99" t="s">
         <v>307</v>
       </c>
-      <c r="I27" s="106"/>
-      <c r="J27" s="106"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
-      <c r="N27" s="106"/>
-      <c r="O27" s="106"/>
-      <c r="W27" s="106" t="s">
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="W27" s="99" t="s">
         <v>308</v>
       </c>
       <c r="X27" s="98"/>
@@ -15256,8 +15252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S34" sqref="S33:S34"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15391,18 +15387,18 @@
       <c r="D9" s="65">
         <v>3</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="G9" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="H9" s="101" t="s">
         <v>319</v>
       </c>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="102" t="s">
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="103" t="s">
         <v>322</v>
       </c>
       <c r="P9" s="80" t="s">
@@ -15447,7 +15443,7 @@
       <c r="D10" s="65">
         <v>3</v>
       </c>
-      <c r="G10" s="105"/>
+      <c r="G10" s="106"/>
       <c r="H10" s="68" t="s">
         <v>314</v>
       </c>
@@ -15466,7 +15462,7 @@
       <c r="M10" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="103"/>
+      <c r="N10" s="104"/>
       <c r="P10" s="81" t="s">
         <v>80</v>
       </c>
@@ -15514,19 +15510,20 @@
       <c r="G11" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="65"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="78">
-        <v>5</v>
-      </c>
-      <c r="K11" s="72"/>
+      <c r="H11" s="65">
+        <v>8</v>
+      </c>
+      <c r="I11" s="72">
+        <v>10</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="107"/>
       <c r="L11" s="72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="72"/>
       <c r="N11" s="79">
-        <f>SUM(J11:M11)</f>
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P11" s="72" t="s">
         <v>90</v>
@@ -15573,15 +15570,16 @@
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="72"/>
-      <c r="J12" s="78">
+      <c r="J12" s="78" t="s">
+        <v>326</v>
+      </c>
+      <c r="K12" s="107"/>
+      <c r="L12" s="72">
         <v>5</v>
       </c>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
       <c r="M12" s="72"/>
-      <c r="N12" s="73">
-        <f t="shared" ref="N12:N17" si="0">SUM(J12:M12)</f>
-        <v>5</v>
+      <c r="N12" s="73" t="s">
+        <v>329</v>
       </c>
       <c r="P12" s="72" t="s">
         <v>188</v>
@@ -15631,16 +15629,17 @@
         <v>283</v>
       </c>
       <c r="H13" s="65"/>
-      <c r="I13" s="72"/>
+      <c r="I13" s="72">
+        <v>7</v>
+      </c>
       <c r="J13" s="78">
-        <v>5</v>
-      </c>
-      <c r="K13" s="72"/>
+        <v>14</v>
+      </c>
+      <c r="K13" s="107"/>
       <c r="L13" s="72"/>
       <c r="M13" s="72"/>
       <c r="N13" s="73">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="P13" s="72" t="s">
         <v>126</v>
@@ -15689,18 +15688,18 @@
       <c r="G14" s="74" t="s">
         <v>284</v>
       </c>
-      <c r="H14" s="78">
+      <c r="H14" s="78"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="78" t="s">
+        <v>327</v>
+      </c>
+      <c r="K14" s="107"/>
+      <c r="L14" s="72">
         <v>3</v>
       </c>
-      <c r="I14" s="72"/>
-      <c r="J14" s="78">
-        <v>3</v>
-      </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
       <c r="M14" s="72"/>
-      <c r="N14" s="73">
-        <v>6</v>
+      <c r="N14" s="73" t="s">
+        <v>330</v>
       </c>
       <c r="P14" s="72" t="s">
         <v>187</v>
@@ -15750,17 +15749,17 @@
         <v>285</v>
       </c>
       <c r="H15" s="65"/>
-      <c r="I15" s="72">
+      <c r="I15" s="72"/>
+      <c r="J15" s="78">
+        <v>18</v>
+      </c>
+      <c r="K15" s="107"/>
+      <c r="L15" s="72">
         <v>2</v>
-      </c>
-      <c r="J15" s="78"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72">
-        <v>6</v>
       </c>
       <c r="M15" s="72"/>
       <c r="N15" s="73">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P15" s="72" t="s">
         <v>224</v>
@@ -15809,17 +15808,18 @@
       <c r="G16" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="H16" s="65"/>
+      <c r="H16" s="65">
+        <v>8</v>
+      </c>
       <c r="I16" s="72"/>
-      <c r="J16" s="78">
-        <v>5</v>
-      </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
+      <c r="J16" s="78"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="72">
+        <v>10</v>
+      </c>
       <c r="M16" s="72"/>
       <c r="N16" s="73">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P16" s="94" t="s">
         <v>294</v>
@@ -15866,19 +15866,20 @@
       <c r="G17" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="H17" s="67"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="77">
-        <v>5</v>
-      </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76">
-        <v>1</v>
+      <c r="H17" s="67">
+        <v>8</v>
+      </c>
+      <c r="I17" s="76">
+        <v>2</v>
+      </c>
+      <c r="J17" s="77"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="76" t="s">
+        <v>328</v>
       </c>
       <c r="M17" s="76"/>
-      <c r="N17" s="77">
-        <f t="shared" si="0"/>
-        <v>6</v>
+      <c r="N17" s="77" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
